--- a/data/Alan MijesT2-2025.xlsx
+++ b/data/Alan MijesT2-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\deber1python\Anvem2.0\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E5096-F145-427A-A6BC-D2690DD643C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212DE241-290B-456D-9CFD-8EAD535C53B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Song" sheetId="1" r:id="rId1"/>
@@ -498,11 +498,18 @@
     <numFmt numFmtId="164" formatCode="###,###,##0"/>
     <numFmt numFmtId="165" formatCode="###,###,##0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -545,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,7 +871,7 @@
   <dimension ref="C3:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +932,7 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>4.0891000000000001E-4</v>
+        <v>3.7366E-4</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
@@ -944,7 +952,7 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>3.7366E-4</v>
+        <v>1.0354400000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -960,11 +968,11 @@
       <c r="F12" s="3">
         <v>28.108226269999999</v>
       </c>
-      <c r="H12">
-        <v>50</v>
+      <c r="H12" t="s">
+        <v>18</v>
       </c>
       <c r="I12">
-        <v>1.0354400000000001E-3</v>
+        <v>240.678381</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
@@ -981,10 +989,11 @@
         <v>21.96286456</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I13">
-        <v>240.678381</v>
+        <f>I12*0.1</f>
+        <v>24.067838100000003</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
@@ -1001,11 +1010,11 @@
         <v>19.380009449999999</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14">
-        <f>I13*0.1</f>
-        <v>24.067838100000003</v>
+        <f>I12-I13</f>
+        <v>216.61054289999998</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -1021,13 +1030,6 @@
       <c r="F15" s="3">
         <v>19.196552369999999</v>
       </c>
-      <c r="H15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15">
-        <f>I13-I14</f>
-        <v>216.61054289999998</v>
-      </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -1043,7 +1045,7 @@
         <v>13.167607820000001</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>11.195789720000001</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -1070,8 +1072,9 @@
       <c r="F18" s="3">
         <v>9.6144694099999999</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>8.8415035</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>8.4036623099999996</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>8.0439949399999993</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>5.5968572500000002</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>5.1199717700000003</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>3.9197792200000001</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>2.7858305099999998</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>41</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>2.46017778</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>2.1126459899999999</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>45</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>1.6301237500000001</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>47</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>1.56927379</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>49</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>1.0982181499999999</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>51</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>1.00204253</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
